--- a/medicine/Enfance/Cheval_de_guerre/Cheval_de_guerre.xlsx
+++ b/medicine/Enfance/Cheval_de_guerre/Cheval_de_guerre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cheval de guerre est un roman écrit par Michael Morpurgo publié en 1982 par Kaye &amp; Ward. Il raconte l'histoire de Joey, un cheval de ferme   acheté par l'armée britannique, envoyé sur le front en France en 1914 lors de la première Guerre mondiale et de son ancien propriétaire, le jeune Albert qui tente de le ramener chez lui.
@@ -512,7 +524,9 @@
           <t>Genèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'auteur a tiré l'idée de son roman de récits de guerre entendus de la bouche d'ex-soldats de son village du Devon.
 </t>
@@ -543,7 +557,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapitre 1
 Durant une vente aux enchères, Joey, encore un poulain de six mois attaché à sa mère, fut séparé d'elle. En effet, sa mère fut vendue seule. Quelques instants plus tard, il fut également vendu et son nouveau propriétaire le ramena avec beaucoup de difficultés jusqu'à son écurie. Il fit dès son arrivée la rencontre de Zoey, une vieille jument assez sympathique. Joey était délaissé par son propriétaire, qui ne le nourrissait pas et ne lui donnait pas à boire. Ensuite, il rencontra Albert, le fils de son propriétaire, qui commença tout de suite à s'en occuper. Albert, enthousiasmé par Joey, éprouva un sentiment profond pour lui et une grande amitié prit naissance entre eux deux.
@@ -583,10 +599,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Théâtre
-2007: War Horse de Nick Stafford
-Cinéma
-2011: Cheval de guerre, film américain de Steven Spielberg[1].</t>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2007: War Horse de Nick Stafford</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cheval_de_guerre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval_de_guerre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2011: Cheval de guerre, film américain de Steven Spielberg.</t>
         </is>
       </c>
     </row>
